--- a/calculator_test_document.xlsx
+++ b/calculator_test_document.xlsx
@@ -280,44 +280,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -532,8 +532,8 @@
   </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -694,13 +694,13 @@
       <c r="B10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="20" t="s">
@@ -714,52 +714,52 @@
     </row>
     <row r="11" spans="1:9" ht="12.75">
       <c r="B11" s="16"/>
-      <c r="C11" s="19"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="14"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="21"/>
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="12.75">
       <c r="B12" s="16"/>
-      <c r="C12" s="19"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="14"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="21"/>
       <c r="G12" s="16"/>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1">
       <c r="B13" s="16"/>
-      <c r="C13" s="19"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="14"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="21"/>
       <c r="G13" s="16"/>
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="12.75">
       <c r="B14" s="16"/>
-      <c r="C14" s="19"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="14"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="21"/>
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:9" ht="12.75">
       <c r="B15" s="16"/>
-      <c r="C15" s="19"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="14"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="21"/>
       <c r="G15" s="16"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1">
       <c r="B16" s="16"/>
-      <c r="C16" s="19"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="22" t="s">
@@ -769,18 +769,18 @@
     </row>
     <row r="17" spans="2:8" ht="12.75">
       <c r="B17" s="16"/>
-      <c r="C17" s="19"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="23"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="16"/>
     </row>
     <row r="18" spans="2:8" ht="12.75">
       <c r="B18" s="16"/>
-      <c r="C18" s="19"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="16"/>
       <c r="H18" s="12" t="s">
         <v>17</v>
@@ -788,10 +788,10 @@
     </row>
     <row r="19" spans="2:8" ht="12.75" customHeight="1">
       <c r="B19" s="16"/>
-      <c r="C19" s="19"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="23"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="16"/>
       <c r="H19" s="10" t="s">
         <v>17</v>
@@ -799,20 +799,20 @@
     </row>
     <row r="20" spans="2:8" ht="12.75">
       <c r="B20" s="16"/>
-      <c r="C20" s="19"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="2:8" ht="12.75">
       <c r="B21" s="16"/>
-      <c r="C21" s="19"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="16"/>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="23" t="s">
         <v>30</v>
       </c>
       <c r="G21" s="16"/>
@@ -822,19 +822,19 @@
     </row>
     <row r="22" spans="2:8" ht="12.75">
       <c r="B22" s="16"/>
-      <c r="C22" s="19"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="24"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="16"/>
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="2:8" ht="12.75">
       <c r="B23" s="16"/>
-      <c r="C23" s="19"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="24"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="16"/>
       <c r="H23" s="10" t="s">
         <v>17</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="24" spans="2:8" ht="15.75" customHeight="1">
       <c r="B24" s="16"/>
-      <c r="C24" s="19"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="16"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="24"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="16"/>
       <c r="H24" s="10" t="s">
         <v>17</v>
@@ -853,30 +853,30 @@
     </row>
     <row r="25" spans="2:8" ht="15.75" customHeight="1">
       <c r="B25" s="16"/>
-      <c r="C25" s="19"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="24"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="16"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" customHeight="1">
       <c r="B26" s="16"/>
-      <c r="C26" s="19"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="16"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="24"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="16"/>
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="2:8" ht="15.75" customHeight="1">
       <c r="B27" s="16"/>
-      <c r="C27" s="19"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="16"/>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="16"/>
@@ -884,50 +884,50 @@
     </row>
     <row r="28" spans="2:8" ht="15.75" customHeight="1">
       <c r="B28" s="16"/>
-      <c r="C28" s="19"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="24"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:8" ht="24.75" customHeight="1">
       <c r="B29" s="16"/>
-      <c r="C29" s="19"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="24"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="16"/>
     </row>
     <row r="30" spans="2:8" ht="15.75" hidden="1" customHeight="1">
       <c r="B30" s="16"/>
-      <c r="C30" s="19"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="24"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" customHeight="1">
       <c r="B31" s="16"/>
-      <c r="C31" s="19"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="2:8" ht="15.75" customHeight="1">
       <c r="B32" s="16"/>
-      <c r="C32" s="19"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="3:8" ht="15.75" customHeight="1">
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="13" t="s">
         <v>40</v>
       </c>
     </row>
@@ -935,69 +935,70 @@
       <c r="C34" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="3:8" ht="15.75" customHeight="1">
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
     </row>
     <row r="36" spans="3:8" ht="15.75" customHeight="1">
       <c r="C36" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
     </row>
     <row r="37" spans="3:8" ht="15.75" customHeight="1">
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
     </row>
     <row r="38" spans="3:8" ht="15.75" customHeight="1">
       <c r="C38" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
     </row>
     <row r="39" spans="3:8" ht="15.75" customHeight="1">
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
     </row>
     <row r="40" spans="3:8" ht="15.75" customHeight="1">
       <c r="C40" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C10:C32"/>
     <mergeCell ref="H33:H40"/>
     <mergeCell ref="G10:G32"/>
     <mergeCell ref="B10:B32"/>
@@ -1014,7 +1015,6 @@
     <mergeCell ref="F16:F20"/>
     <mergeCell ref="F21:F26"/>
     <mergeCell ref="F27:F32"/>
-    <mergeCell ref="C10:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
